--- a/PLC_Docs/【詳細設計書】 PLC通信プロトタイプシステム.xlsx
+++ b/PLC_Docs/【詳細設計書】 PLC通信プロトタイプシステム.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terapoc15\Desktop\NakaDocs\PLC_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13624CAF-2C1A-4C1F-A4A6-A0A6416B4665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128BC4F1-93AC-4F03-9A0D-6CA217F07380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4CD4275A-3B2D-416E-BC83-2308EE41A34C}"/>
+    <workbookView xWindow="4725" yWindow="1245" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{4CD4275A-3B2D-416E-BC83-2308EE41A34C}"/>
   </bookViews>
   <sheets>
-    <sheet name="TCP通信の構造" sheetId="4" r:id="rId1"/>
-    <sheet name="UDP通信の構造 " sheetId="5" r:id="rId2"/>
-    <sheet name="【シーケンス図】起動-TCP通信-UDP通信" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="【シーケンス図】起動-TCP通信-UDP通信【正常系】" sheetId="2" r:id="rId1"/>
+    <sheet name="【シーケンス図】TCP通信【異常系】" sheetId="6" r:id="rId2"/>
+    <sheet name="TCP通信の構造" sheetId="4" r:id="rId3"/>
+    <sheet name="UDP通信の構造 " sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
     <t>main</t>
     <phoneticPr fontId="1"/>
@@ -628,10 +629,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シーケンス図　起動-TCP通信-UDP通信</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PLCSettings</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -684,13 +681,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ACK OK 返信</t>
-    <rPh sb="7" eb="9">
-      <t>ヘンシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WriteFile</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -756,6 +746,123 @@
     <rPh sb="20" eb="22">
       <t>サクジョ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※仮に複数のタスクが同タイミングになってしまったとしても、</t>
+    <rPh sb="1" eb="2">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キューの取り出しに間隔を設けることで、同時リクエストにはならない。</t>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ドウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK　返信</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス図　起動-TCP通信-UDP通信【正常系】</t>
+    <rPh sb="22" eb="25">
+      <t>セイジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起動→→→</t>
+    <rPh sb="0" eb="2">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス図　TCP通信【異常系】</t>
+    <rPh sb="10" eb="12">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>イジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Worker
+(TCP)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キューに入れる</t>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キューから出す</t>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TCP接続・送信</t>
+    <rPh sb="3" eb="5">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失敗</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失敗レスポンス</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>をfalseに変更</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『IsConnectedPLC』</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1042,7 +1149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1061,50 +1168,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1145,37 +1213,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
@@ -1198,6 +1242,63 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1222,6 +1323,2553 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{586DA80E-96E0-4D53-A88C-F8F2C098B68C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3059906" y="2059781"/>
+          <a:ext cx="1785938" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813833EA-8965-48B1-8E9F-A56EE8979CAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="2845594"/>
+          <a:ext cx="3821906" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7182E5-EC98-40E2-BC01-52BC6D74CDD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="3702844"/>
+          <a:ext cx="5893594" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F238017C-3324-442F-87C1-B0670FB152DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9132094" y="4476750"/>
+          <a:ext cx="1785938" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D71402-806C-4E3F-8049-9BB809FCFCDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11168062" y="5298281"/>
+          <a:ext cx="1785938" cy="11906"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>178593</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{421969C3-BB04-28EF-C501-4D6A60C9A882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7060406" y="3667126"/>
+          <a:ext cx="2238375" cy="392905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[ if ]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タスクの実行時間が来たら</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>119</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DCC971-2B45-422D-AB25-C6BC69F146DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8405812" y="2750344"/>
+          <a:ext cx="11680032" cy="5572125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[loop] </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>無限ループ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直線矢印コネクタ 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C3CEF88-851C-4084-8503-D2062B7D826C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13156406" y="5453062"/>
+          <a:ext cx="1809750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6CAA08-7ACA-45D5-A85C-F07FE3DABD4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="15204281" y="6215063"/>
+          <a:ext cx="3786188" cy="11906"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCD4C8B-D447-4B7B-BDD5-60C98A65FE85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15216188" y="5631657"/>
+          <a:ext cx="3762374" cy="11905"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="直線矢印コネクタ 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{976703A6-872E-46F4-A231-3B00FF9CC1B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13168313" y="6441281"/>
+          <a:ext cx="1797843" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="コネクタ: カギ線 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EDF917-930F-B2ED-DD35-B878B136EAB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13144500" y="6917532"/>
+          <a:ext cx="11906" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5020108"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直線矢印コネクタ 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE2A0D27-4DBE-4931-B022-8AFE766D125F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11132344" y="7965281"/>
+          <a:ext cx="7191374" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>35720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>118</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="正方形/長方形 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A71C22-2719-49B4-B853-FFCE715A9A59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11203781" y="4226720"/>
+          <a:ext cx="8620125" cy="4024312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[loop] </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>キューにタスクがある限りループ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="直線矢印コネクタ 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E330D29F-D05D-4E0A-8EC1-6264E25B58CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1035843" y="2309812"/>
+          <a:ext cx="1738313" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直線矢印コネクタ 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB019B83-EC0B-460E-AF5D-AC58139FCD65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1023937" y="3167062"/>
+          <a:ext cx="3786188" cy="11908"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="直線矢印コネクタ 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4385C8DC-8919-47C4-A3C9-93977267FCA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13156406" y="9655969"/>
+          <a:ext cx="3810000" cy="11906"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="直線矢印コネクタ 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094A91A3-8C71-491F-8D18-A50433D6EE96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7108032" y="6310313"/>
+          <a:ext cx="1785938" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="直線矢印コネクタ 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{528BDEB8-A03A-4917-BFC5-A9902779CFFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9144000" y="8143875"/>
+          <a:ext cx="1785939" cy="11906"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="直線矢印コネクタ 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87557B08-A801-41BA-B736-1143B4590130}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7131844" y="8048626"/>
+          <a:ext cx="1785938" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="直線矢印コネクタ 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE02F354-42E2-4993-833F-A79467068AB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13215937" y="10108407"/>
+          <a:ext cx="3833812" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="直線矢印コネクタ 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD34DD1-AB7F-4524-AD19-126DCC9FB4C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17287875" y="10346531"/>
+          <a:ext cx="5667375" cy="11907"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="直線矢印コネクタ 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71101752-0151-4D6A-BAEC-16C955A23663}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17335500" y="10810875"/>
+          <a:ext cx="5584031" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="直線矢印コネクタ 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C2EDAB-8E58-4439-A087-18CE2FB39FDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13156406" y="10929937"/>
+          <a:ext cx="3905250" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="直線矢印コネクタ 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C230CE20-394B-4F43-84EC-5A06040442E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13156406" y="11334750"/>
+          <a:ext cx="5691188" cy="23812"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="直線矢印コネクタ 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4078109F-EAEA-48E1-9D90-7A6627F8ABD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13156406" y="12096750"/>
+          <a:ext cx="5655469" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>59529</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="正方形/長方形 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBDCD7E-8916-4B83-866C-CB28B2404585}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11394279" y="8977312"/>
+          <a:ext cx="14573251" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[loop] </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>リストにレスポンスがある限りループ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>154780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="正方形/長方形 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10AEF488-FD12-4779-BD38-AB6445F2DD9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18597564" y="12442030"/>
+          <a:ext cx="2381250" cy="392905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[ if ]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> リストがたまってきたら</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="コネクタ: カギ線 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830784ED-FE5B-4D01-8C0B-C76581C0BB89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21085969" y="13239750"/>
+          <a:ext cx="11906" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5020108"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>178596</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="直線矢印コネクタ 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECC64EF-64BF-41A7-A178-B1B98692F3A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="19073813" y="13180218"/>
+          <a:ext cx="1785939" cy="11906"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>202406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C790C945-F933-C53A-FAA4-18C408A6D9B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2166937" y="535781"/>
+          <a:ext cx="3571875" cy="845344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83343</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 円形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1F01237-7627-22DB-191E-8E10BFD76CF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285749" y="5203031"/>
+          <a:ext cx="2416969" cy="940594"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 84094"/>
+            <a:gd name="adj2" fmla="val -458845"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>一つのクラスにまとめる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47DBF55A-00CF-44EB-959B-4D0FA5FC9841}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13120688" y="10120312"/>
+          <a:ext cx="2381250" cy="392905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[ if ]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 送信</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>202405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA74C86-DB92-F16C-E33F-1FEF9362640D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2166936"/>
+          <a:ext cx="3024186" cy="1952626"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TCP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の接続不可状態はグローバルな変数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>『IsConnectedPLC』bool</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で管理する予定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>初期値は </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>false</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ですが、このシーケンス図は途中で失敗したという想定です。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893857AD-1539-4EEF-8D2B-EE0C77BB75E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="2000250"/>
+          <a:ext cx="1785938" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E508D822-0CFC-4BA1-8609-14B92BC75B47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3059906" y="2250281"/>
+          <a:ext cx="1833563" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="コネクタ: カギ線 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76FCB2D0-D13C-4D22-97F8-5A39B3E3BA63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10991850" y="6858001"/>
+          <a:ext cx="9525" cy="235743"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5020108"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E9DF952-0F72-45EF-93FA-6713146B87C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5072063" y="2405063"/>
+          <a:ext cx="1833563" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{329C41DF-7A1B-4D9E-842D-829DA053CD8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7096125" y="2607468"/>
+          <a:ext cx="1833563" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{916E70D3-CE54-4042-BE67-86D46A729365}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9108281" y="2833687"/>
+          <a:ext cx="3833813" cy="11907"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0388604-5F80-4E16-AFEF-E1FB9764ED60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9120187" y="3357562"/>
+          <a:ext cx="3845719" cy="11907"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D70CA9-9893-4CC5-A492-579BE6558E79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7096125" y="3524250"/>
+          <a:ext cx="1750219" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2393,7 +5041,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3774,1777 +6422,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{586DA80E-96E0-4D53-A88C-F8F2C098B68C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3059906" y="2059781"/>
-          <a:ext cx="1785938" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813833EA-8965-48B1-8E9F-A56EE8979CAD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3048000" y="2845594"/>
-          <a:ext cx="3821906" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>35719</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7182E5-EC98-40E2-BC01-52BC6D74CDD1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3048000" y="3702844"/>
-          <a:ext cx="5893594" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F238017C-3324-442F-87C1-B0670FB152DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9132094" y="4476750"/>
-          <a:ext cx="1785938" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>35718</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="直線矢印コネクタ 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D71402-806C-4E3F-8049-9BB809FCFCDC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="11168062" y="5298281"/>
-          <a:ext cx="1785938" cy="11906"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>178593</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>83345</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="正方形/長方形 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{421969C3-BB04-28EF-C501-4D6A60C9A882}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7060406" y="3667126"/>
-          <a:ext cx="2238375" cy="392905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="accent2"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>[ if ]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>タスクの実行時間が来たら</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>107156</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>119</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="正方形/長方形 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DCC971-2B45-422D-AB25-C6BC69F146DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8405812" y="2750344"/>
-          <a:ext cx="11680032" cy="5572125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="accent2"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>[loop] </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>無限ループ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="直線矢印コネクタ 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C3CEF88-851C-4084-8503-D2062B7D826C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13156406" y="5453062"/>
-          <a:ext cx="1809750" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>114</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6CAA08-7ACA-45D5-A85C-F07FE3DABD4F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="15204281" y="6215063"/>
-          <a:ext cx="3786188" cy="11906"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>35719</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>114</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCD4C8B-D447-4B7B-BDD5-60C98A65FE85}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15216188" y="5631657"/>
-          <a:ext cx="3762374" cy="11905"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="直線矢印コネクタ 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{976703A6-872E-46F4-A231-3B00FF9CC1B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="13168313" y="6441281"/>
-          <a:ext cx="1797843" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="94" name="コネクタ: カギ線 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EDF917-930F-B2ED-DD35-B878B136EAB2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13144500" y="6917532"/>
-          <a:ext cx="11906" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 5020108"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>94</xdr:col>
-      <xdr:colOff>35718</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="直線矢印コネクタ 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE2A0D27-4DBE-4931-B022-8AFE766D125F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11132344" y="7965281"/>
-          <a:ext cx="7191374" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>35720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>118</xdr:col>
-      <xdr:colOff>35718</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>11907</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="正方形/長方形 97">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A71C22-2719-49B4-B853-FFCE715A9A59}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11203781" y="4226720"/>
-          <a:ext cx="8620125" cy="4024312"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="accent2"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>[loop] </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>キューにタスクがある限りループ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="101" name="直線矢印コネクタ 100">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E330D29F-D05D-4E0A-8EC1-6264E25B58CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1035843" y="2309812"/>
-          <a:ext cx="1738313" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>154781</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="104" name="直線矢印コネクタ 103">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB019B83-EC0B-460E-AF5D-AC58139FCD65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1023937" y="3167062"/>
-          <a:ext cx="3786188" cy="11908"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>94</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="108" name="直線矢印コネクタ 107">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4385C8DC-8919-47C4-A3C9-93977267FCA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13156406" y="9655969"/>
-          <a:ext cx="3810000" cy="11906"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="110" name="直線矢印コネクタ 109">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094A91A3-8C71-491F-8D18-A50433D6EE96}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7108032" y="6310313"/>
-          <a:ext cx="1785938" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>35719</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="112" name="直線矢印コネクタ 111">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{528BDEB8-A03A-4917-BFC5-A9902779CFFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="9144000" y="8143875"/>
-          <a:ext cx="1785939" cy="11906"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>11907</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>11907</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="114" name="直線矢印コネクタ 113">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87557B08-A801-41BA-B736-1143B4590130}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7131844" y="8048626"/>
-          <a:ext cx="1785938" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>59531</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>84</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="115" name="直線矢印コネクタ 114">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE02F354-42E2-4993-833F-A79467068AB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13215937" y="10108407"/>
-          <a:ext cx="3833812" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>124</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="116" name="直線矢印コネクタ 115">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD34DD1-AB7F-4524-AD19-126DCC9FB4C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="17287875" y="10346531"/>
-          <a:ext cx="5667375" cy="11907"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>124</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="118" name="直線矢印コネクタ 117">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71101752-0151-4D6A-BAEC-16C955A23663}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="17335500" y="10810875"/>
-          <a:ext cx="5584031" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>59532</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>84</xdr:col>
-      <xdr:colOff>154781</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="122" name="直線矢印コネクタ 121">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C2EDAB-8E58-4439-A087-18CE2FB39FDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="13156406" y="10929938"/>
-          <a:ext cx="3905250" cy="23812"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>93</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="124" name="直線矢印コネクタ 123">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C230CE20-394B-4F43-84EC-5A06040442E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13156406" y="11334750"/>
-          <a:ext cx="5691188" cy="23812"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>93</xdr:col>
-      <xdr:colOff>154781</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="126" name="直線矢印コネクタ 125">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4078109F-EAEA-48E1-9D90-7A6627F8ABD5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13156406" y="12096750"/>
-          <a:ext cx="5655469" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>59529</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>129</xdr:col>
-      <xdr:colOff>23811</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="正方形/長方形 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBDCD7E-8916-4B83-866C-CB28B2404585}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11394279" y="8977312"/>
-          <a:ext cx="14573251" cy="3429000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="accent2"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>[loop] </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>リストにレスポンスがある限りループ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>94</xdr:col>
-      <xdr:colOff>59532</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>106</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>119060</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="正方形/長方形 129">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10AEF488-FD12-4779-BD38-AB6445F2DD9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18919032" y="12418218"/>
-          <a:ext cx="2381250" cy="392905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="accent2"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>[ if ]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> リストがたまってきたら</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>105</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>105</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="133" name="コネクタ: カギ線 132">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830784ED-FE5B-4D01-8C0B-C76581C0BB89}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21085969" y="13239750"/>
-          <a:ext cx="11906" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 5020108"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>95</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>103</xdr:col>
-      <xdr:colOff>178596</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="134" name="直線矢印コネクタ 133">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECC64EF-64BF-41A7-A178-B1B98692F3A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="19073813" y="13180218"/>
-          <a:ext cx="1785939" cy="11906"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -5841,1098 +6718,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7BF427-23CA-438B-8458-9AFDC231FFF3}">
-  <dimension ref="A1:CD62"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BA38" sqref="BA38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:82" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6"/>
-      <c r="BZ1" s="6"/>
-      <c r="CA1" s="6"/>
-      <c r="CB1" s="6"/>
-      <c r="CC1" s="6"/>
-      <c r="CD1" s="6"/>
-    </row>
-    <row r="2" spans="1:82" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="6"/>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="6"/>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="6"/>
-      <c r="BG2" s="6"/>
-      <c r="BH2" s="6"/>
-      <c r="BI2" s="6"/>
-      <c r="BJ2" s="6"/>
-      <c r="BK2" s="6"/>
-      <c r="BL2" s="6"/>
-      <c r="BM2" s="6"/>
-      <c r="BN2" s="6"/>
-      <c r="BO2" s="6"/>
-      <c r="BP2" s="6"/>
-      <c r="BQ2" s="6"/>
-      <c r="BR2" s="6"/>
-      <c r="BS2" s="6"/>
-      <c r="BT2" s="6"/>
-      <c r="BU2" s="6"/>
-      <c r="BV2" s="6"/>
-      <c r="BW2" s="6"/>
-      <c r="BX2" s="6"/>
-      <c r="BY2" s="6"/>
-      <c r="BZ2" s="6"/>
-      <c r="CA2" s="6"/>
-      <c r="CB2" s="6"/>
-      <c r="CC2" s="6"/>
-      <c r="CD2" s="6"/>
-    </row>
-    <row r="3" spans="1:82" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="1"/>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1"/>
-      <c r="BD3" s="1"/>
-      <c r="BE3" s="1"/>
-      <c r="BF3" s="1"/>
-      <c r="BG3" s="1"/>
-      <c r="BH3" s="1"/>
-      <c r="BI3" s="1"/>
-      <c r="BJ3" s="1"/>
-      <c r="BK3" s="1"/>
-      <c r="BL3" s="1"/>
-      <c r="BM3" s="1"/>
-      <c r="BN3" s="1"/>
-      <c r="BO3" s="1"/>
-      <c r="BP3" s="1"/>
-      <c r="BQ3" s="1"/>
-      <c r="BR3" s="1"/>
-      <c r="BS3" s="1"/>
-      <c r="BT3" s="1"/>
-      <c r="BU3" s="1"/>
-      <c r="BV3" s="1"/>
-      <c r="BW3" s="1"/>
-      <c r="BX3" s="1"/>
-      <c r="BY3" s="1"/>
-      <c r="BZ3" s="1"/>
-      <c r="CA3" s="1"/>
-      <c r="CB3" s="1"/>
-      <c r="CC3" s="1"/>
-      <c r="CD3" s="1"/>
-    </row>
-    <row r="5" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="29"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="29"/>
-      <c r="AM13" s="29"/>
-      <c r="AN13" s="29"/>
-      <c r="AO13" s="29"/>
-      <c r="AP13" s="29"/>
-      <c r="AQ13" s="29"/>
-      <c r="AR13" s="29"/>
-      <c r="AS13" s="29"/>
-      <c r="AT13" s="29"/>
-      <c r="AU13" s="29"/>
-      <c r="AV13" s="29"/>
-    </row>
-    <row r="14" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="7:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="29"/>
-      <c r="AL20" s="29"/>
-      <c r="AM20" s="29"/>
-      <c r="AN20" s="29"/>
-      <c r="AO20" s="29"/>
-      <c r="AP20" s="29"/>
-      <c r="AQ20" s="29"/>
-      <c r="AR20" s="29"/>
-      <c r="AS20" s="29"/>
-      <c r="AT20" s="29"/>
-      <c r="AU20" s="29"/>
-      <c r="AV20" s="29"/>
-    </row>
-    <row r="21" spans="7:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="7:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="29"/>
-      <c r="AI29" s="29"/>
-      <c r="AJ29" s="29"/>
-      <c r="AK29" s="29"/>
-      <c r="AL29" s="29"/>
-      <c r="AM29" s="29"/>
-      <c r="AN29" s="29"/>
-      <c r="AO29" s="29"/>
-      <c r="AP29" s="29"/>
-      <c r="AQ29" s="29"/>
-      <c r="AR29" s="29"/>
-      <c r="AS29" s="29"/>
-      <c r="AT29" s="29"/>
-      <c r="AU29" s="29"/>
-      <c r="AV29" s="29"/>
-    </row>
-    <row r="30" spans="7:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="7:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I32" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="7:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G44" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30"/>
-      <c r="AD44" s="30"/>
-      <c r="AE44" s="30"/>
-      <c r="AF44" s="30"/>
-      <c r="AG44" s="30"/>
-      <c r="AH44" s="30"/>
-      <c r="AI44" s="30"/>
-      <c r="AJ44" s="30"/>
-      <c r="AK44" s="30"/>
-      <c r="AL44" s="30"/>
-      <c r="AM44" s="30"/>
-      <c r="AN44" s="30"/>
-      <c r="AO44" s="30"/>
-      <c r="AP44" s="30"/>
-      <c r="AQ44" s="30"/>
-      <c r="AR44" s="30"/>
-      <c r="AS44" s="30"/>
-      <c r="AT44" s="30"/>
-      <c r="AU44" s="30"/>
-      <c r="AV44" s="30"/>
-      <c r="AW44" s="30"/>
-    </row>
-    <row r="59" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G59" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I60" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I61" t="s">
-        <v>15</v>
-      </c>
-      <c r="J61" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I62" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:CD2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA526B4-576F-4645-9213-B355672E4A16}">
-  <dimension ref="A1:CD69"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BM51" sqref="BM51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:82" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6"/>
-      <c r="BZ1" s="6"/>
-      <c r="CA1" s="6"/>
-      <c r="CB1" s="6"/>
-      <c r="CC1" s="6"/>
-      <c r="CD1" s="6"/>
-    </row>
-    <row r="2" spans="1:82" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="6"/>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="6"/>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="6"/>
-      <c r="BG2" s="6"/>
-      <c r="BH2" s="6"/>
-      <c r="BI2" s="6"/>
-      <c r="BJ2" s="6"/>
-      <c r="BK2" s="6"/>
-      <c r="BL2" s="6"/>
-      <c r="BM2" s="6"/>
-      <c r="BN2" s="6"/>
-      <c r="BO2" s="6"/>
-      <c r="BP2" s="6"/>
-      <c r="BQ2" s="6"/>
-      <c r="BR2" s="6"/>
-      <c r="BS2" s="6"/>
-      <c r="BT2" s="6"/>
-      <c r="BU2" s="6"/>
-      <c r="BV2" s="6"/>
-      <c r="BW2" s="6"/>
-      <c r="BX2" s="6"/>
-      <c r="BY2" s="6"/>
-      <c r="BZ2" s="6"/>
-      <c r="CA2" s="6"/>
-      <c r="CB2" s="6"/>
-      <c r="CC2" s="6"/>
-      <c r="CD2" s="6"/>
-    </row>
-    <row r="3" spans="1:82" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="1"/>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1"/>
-      <c r="BD3" s="1"/>
-      <c r="BE3" s="1"/>
-      <c r="BF3" s="1"/>
-      <c r="BG3" s="1"/>
-      <c r="BH3" s="1"/>
-      <c r="BI3" s="1"/>
-      <c r="BJ3" s="1"/>
-      <c r="BK3" s="1"/>
-      <c r="BL3" s="1"/>
-      <c r="BM3" s="1"/>
-      <c r="BN3" s="1"/>
-      <c r="BO3" s="1"/>
-      <c r="BP3" s="1"/>
-      <c r="BQ3" s="1"/>
-      <c r="BR3" s="1"/>
-      <c r="BS3" s="1"/>
-      <c r="BT3" s="1"/>
-      <c r="BU3" s="1"/>
-      <c r="BV3" s="1"/>
-      <c r="BW3" s="1"/>
-      <c r="BX3" s="1"/>
-      <c r="BY3" s="1"/>
-      <c r="BZ3" s="1"/>
-      <c r="CA3" s="1"/>
-      <c r="CB3" s="1"/>
-      <c r="CC3" s="1"/>
-      <c r="CD3" s="1"/>
-    </row>
-    <row r="5" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="29"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="29"/>
-      <c r="AL10" s="29"/>
-      <c r="AM10" s="29"/>
-      <c r="AN10" s="29"/>
-      <c r="AO10" s="29"/>
-      <c r="AP10" s="29"/>
-      <c r="AQ10" s="29"/>
-      <c r="AR10" s="29"/>
-      <c r="AS10" s="29"/>
-      <c r="AT10" s="29"/>
-      <c r="AU10" s="29"/>
-      <c r="AV10" s="29"/>
-    </row>
-    <row r="11" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="7:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="29"/>
-      <c r="AI23" s="29"/>
-      <c r="AJ23" s="29"/>
-      <c r="AK23" s="29"/>
-      <c r="AL23" s="29"/>
-      <c r="AM23" s="29"/>
-      <c r="AN23" s="29"/>
-      <c r="AO23" s="29"/>
-      <c r="AP23" s="29"/>
-      <c r="AQ23" s="29"/>
-      <c r="AR23" s="29"/>
-      <c r="AS23" s="29"/>
-      <c r="AT23" s="29"/>
-      <c r="AU23" s="29"/>
-      <c r="AV23" s="29"/>
-    </row>
-    <row r="24" spans="7:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="7:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="7:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="29"/>
-      <c r="AA36" s="29"/>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="29"/>
-      <c r="AD36" s="29"/>
-      <c r="AE36" s="29"/>
-      <c r="AF36" s="29"/>
-      <c r="AG36" s="29"/>
-      <c r="AH36" s="29"/>
-      <c r="AI36" s="29"/>
-      <c r="AJ36" s="29"/>
-      <c r="AK36" s="29"/>
-      <c r="AL36" s="29"/>
-      <c r="AM36" s="29"/>
-      <c r="AN36" s="29"/>
-      <c r="AO36" s="29"/>
-      <c r="AP36" s="29"/>
-      <c r="AQ36" s="29"/>
-      <c r="AR36" s="29"/>
-      <c r="AS36" s="29"/>
-      <c r="AT36" s="29"/>
-      <c r="AU36" s="29"/>
-      <c r="AV36" s="29"/>
-    </row>
-    <row r="37" spans="7:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="7:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I39" s="31"/>
-      <c r="J39" s="32"/>
-    </row>
-    <row r="51" spans="7:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G51" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30"/>
-      <c r="W51" s="30"/>
-      <c r="X51" s="30"/>
-      <c r="Y51" s="30"/>
-      <c r="Z51" s="30"/>
-      <c r="AA51" s="30"/>
-      <c r="AB51" s="30"/>
-      <c r="AC51" s="30"/>
-      <c r="AD51" s="30"/>
-      <c r="AE51" s="30"/>
-      <c r="AF51" s="30"/>
-      <c r="AG51" s="30"/>
-      <c r="AH51" s="30"/>
-      <c r="AI51" s="30"/>
-      <c r="AJ51" s="30"/>
-      <c r="AK51" s="30"/>
-      <c r="AL51" s="30"/>
-      <c r="AM51" s="30"/>
-      <c r="AN51" s="30"/>
-      <c r="AO51" s="30"/>
-      <c r="AP51" s="30"/>
-      <c r="AQ51" s="30"/>
-      <c r="AR51" s="30"/>
-      <c r="AS51" s="30"/>
-      <c r="AT51" s="30"/>
-      <c r="AU51" s="30"/>
-      <c r="AV51" s="30"/>
-      <c r="AW51" s="30"/>
-    </row>
-    <row r="53" spans="7:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="V53" s="33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G66" t="s">
-        <v>23</v>
-      </c>
-      <c r="H66" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I67" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I69" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:CD2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0BA5A6-0DF2-436A-816A-7B877ED71950}">
   <dimension ref="A1:DW69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BH15" sqref="BH15"/>
+    <sheetView topLeftCell="AY1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="DK29" sqref="DK29:DK31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6942,254 +6733,254 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:127" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6"/>
-      <c r="BZ1" s="6"/>
-      <c r="CA1" s="6"/>
-      <c r="CB1" s="6"/>
-      <c r="CC1" s="6"/>
-      <c r="CD1" s="6"/>
-      <c r="CE1" s="6"/>
-      <c r="CF1" s="6"/>
-      <c r="CG1" s="6"/>
-      <c r="CH1" s="6"/>
-      <c r="CI1" s="6"/>
-      <c r="CJ1" s="6"/>
-      <c r="CK1" s="6"/>
-      <c r="CL1" s="6"/>
-      <c r="CM1" s="6"/>
-      <c r="CN1" s="6"/>
-      <c r="CO1" s="6"/>
-      <c r="CP1" s="6"/>
-      <c r="CQ1" s="6"/>
-      <c r="CR1" s="6"/>
-      <c r="CS1" s="6"/>
-      <c r="CT1" s="6"/>
-      <c r="CU1" s="6"/>
-      <c r="CV1" s="6"/>
-      <c r="CW1" s="6"/>
-      <c r="CX1" s="6"/>
-      <c r="CY1" s="6"/>
-      <c r="CZ1" s="6"/>
-      <c r="DA1" s="6"/>
-      <c r="DB1" s="6"/>
-      <c r="DC1" s="6"/>
-      <c r="DD1" s="6"/>
-      <c r="DE1" s="6"/>
-      <c r="DF1" s="6"/>
-      <c r="DG1" s="6"/>
-      <c r="DH1" s="6"/>
-      <c r="DI1" s="6"/>
-      <c r="DJ1" s="6"/>
-      <c r="DK1" s="6"/>
-      <c r="DL1" s="6"/>
-      <c r="DM1" s="6"/>
-      <c r="DN1" s="6"/>
-      <c r="DO1" s="6"/>
-      <c r="DP1" s="6"/>
-      <c r="DQ1" s="6"/>
-      <c r="DR1" s="6"/>
+      <c r="A1" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="43"/>
+      <c r="AY1" s="43"/>
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="43"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="43"/>
+      <c r="BK1" s="43"/>
+      <c r="BL1" s="43"/>
+      <c r="BM1" s="43"/>
+      <c r="BN1" s="43"/>
+      <c r="BO1" s="43"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
+      <c r="BS1" s="43"/>
+      <c r="BT1" s="43"/>
+      <c r="BU1" s="43"/>
+      <c r="BV1" s="43"/>
+      <c r="BW1" s="43"/>
+      <c r="BX1" s="43"/>
+      <c r="BY1" s="43"/>
+      <c r="BZ1" s="43"/>
+      <c r="CA1" s="43"/>
+      <c r="CB1" s="43"/>
+      <c r="CC1" s="43"/>
+      <c r="CD1" s="43"/>
+      <c r="CE1" s="43"/>
+      <c r="CF1" s="43"/>
+      <c r="CG1" s="43"/>
+      <c r="CH1" s="43"/>
+      <c r="CI1" s="43"/>
+      <c r="CJ1" s="43"/>
+      <c r="CK1" s="43"/>
+      <c r="CL1" s="43"/>
+      <c r="CM1" s="43"/>
+      <c r="CN1" s="43"/>
+      <c r="CO1" s="43"/>
+      <c r="CP1" s="43"/>
+      <c r="CQ1" s="43"/>
+      <c r="CR1" s="43"/>
+      <c r="CS1" s="43"/>
+      <c r="CT1" s="43"/>
+      <c r="CU1" s="43"/>
+      <c r="CV1" s="43"/>
+      <c r="CW1" s="43"/>
+      <c r="CX1" s="43"/>
+      <c r="CY1" s="43"/>
+      <c r="CZ1" s="43"/>
+      <c r="DA1" s="43"/>
+      <c r="DB1" s="43"/>
+      <c r="DC1" s="43"/>
+      <c r="DD1" s="43"/>
+      <c r="DE1" s="43"/>
+      <c r="DF1" s="43"/>
+      <c r="DG1" s="43"/>
+      <c r="DH1" s="43"/>
+      <c r="DI1" s="43"/>
+      <c r="DJ1" s="43"/>
+      <c r="DK1" s="43"/>
+      <c r="DL1" s="43"/>
+      <c r="DM1" s="43"/>
+      <c r="DN1" s="43"/>
+      <c r="DO1" s="43"/>
+      <c r="DP1" s="43"/>
+      <c r="DQ1" s="43"/>
+      <c r="DR1" s="43"/>
     </row>
     <row r="2" spans="1:127" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="6"/>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="6"/>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="6"/>
-      <c r="BG2" s="6"/>
-      <c r="BH2" s="6"/>
-      <c r="BI2" s="6"/>
-      <c r="BJ2" s="6"/>
-      <c r="BK2" s="6"/>
-      <c r="BL2" s="6"/>
-      <c r="BM2" s="6"/>
-      <c r="BN2" s="6"/>
-      <c r="BO2" s="6"/>
-      <c r="BP2" s="6"/>
-      <c r="BQ2" s="6"/>
-      <c r="BR2" s="6"/>
-      <c r="BS2" s="6"/>
-      <c r="BT2" s="6"/>
-      <c r="BU2" s="6"/>
-      <c r="BV2" s="6"/>
-      <c r="BW2" s="6"/>
-      <c r="BX2" s="6"/>
-      <c r="BY2" s="6"/>
-      <c r="BZ2" s="6"/>
-      <c r="CA2" s="6"/>
-      <c r="CB2" s="6"/>
-      <c r="CC2" s="6"/>
-      <c r="CD2" s="6"/>
-      <c r="CE2" s="6"/>
-      <c r="CF2" s="6"/>
-      <c r="CG2" s="6"/>
-      <c r="CH2" s="6"/>
-      <c r="CI2" s="6"/>
-      <c r="CJ2" s="6"/>
-      <c r="CK2" s="6"/>
-      <c r="CL2" s="6"/>
-      <c r="CM2" s="6"/>
-      <c r="CN2" s="6"/>
-      <c r="CO2" s="6"/>
-      <c r="CP2" s="6"/>
-      <c r="CQ2" s="6"/>
-      <c r="CR2" s="6"/>
-      <c r="CS2" s="6"/>
-      <c r="CT2" s="6"/>
-      <c r="CU2" s="6"/>
-      <c r="CV2" s="6"/>
-      <c r="CW2" s="6"/>
-      <c r="CX2" s="6"/>
-      <c r="CY2" s="6"/>
-      <c r="CZ2" s="6"/>
-      <c r="DA2" s="6"/>
-      <c r="DB2" s="6"/>
-      <c r="DC2" s="6"/>
-      <c r="DD2" s="6"/>
-      <c r="DE2" s="6"/>
-      <c r="DF2" s="6"/>
-      <c r="DG2" s="6"/>
-      <c r="DH2" s="6"/>
-      <c r="DI2" s="6"/>
-      <c r="DJ2" s="6"/>
-      <c r="DK2" s="6"/>
-      <c r="DL2" s="6"/>
-      <c r="DM2" s="6"/>
-      <c r="DN2" s="6"/>
-      <c r="DO2" s="6"/>
-      <c r="DP2" s="6"/>
-      <c r="DQ2" s="6"/>
-      <c r="DR2" s="6"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="43"/>
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="43"/>
+      <c r="BK2" s="43"/>
+      <c r="BL2" s="43"/>
+      <c r="BM2" s="43"/>
+      <c r="BN2" s="43"/>
+      <c r="BO2" s="43"/>
+      <c r="BP2" s="43"/>
+      <c r="BQ2" s="43"/>
+      <c r="BR2" s="43"/>
+      <c r="BS2" s="43"/>
+      <c r="BT2" s="43"/>
+      <c r="BU2" s="43"/>
+      <c r="BV2" s="43"/>
+      <c r="BW2" s="43"/>
+      <c r="BX2" s="43"/>
+      <c r="BY2" s="43"/>
+      <c r="BZ2" s="43"/>
+      <c r="CA2" s="43"/>
+      <c r="CB2" s="43"/>
+      <c r="CC2" s="43"/>
+      <c r="CD2" s="43"/>
+      <c r="CE2" s="43"/>
+      <c r="CF2" s="43"/>
+      <c r="CG2" s="43"/>
+      <c r="CH2" s="43"/>
+      <c r="CI2" s="43"/>
+      <c r="CJ2" s="43"/>
+      <c r="CK2" s="43"/>
+      <c r="CL2" s="43"/>
+      <c r="CM2" s="43"/>
+      <c r="CN2" s="43"/>
+      <c r="CO2" s="43"/>
+      <c r="CP2" s="43"/>
+      <c r="CQ2" s="43"/>
+      <c r="CR2" s="43"/>
+      <c r="CS2" s="43"/>
+      <c r="CT2" s="43"/>
+      <c r="CU2" s="43"/>
+      <c r="CV2" s="43"/>
+      <c r="CW2" s="43"/>
+      <c r="CX2" s="43"/>
+      <c r="CY2" s="43"/>
+      <c r="CZ2" s="43"/>
+      <c r="DA2" s="43"/>
+      <c r="DB2" s="43"/>
+      <c r="DC2" s="43"/>
+      <c r="DD2" s="43"/>
+      <c r="DE2" s="43"/>
+      <c r="DF2" s="43"/>
+      <c r="DG2" s="43"/>
+      <c r="DH2" s="43"/>
+      <c r="DI2" s="43"/>
+      <c r="DJ2" s="43"/>
+      <c r="DK2" s="43"/>
+      <c r="DL2" s="43"/>
+      <c r="DM2" s="43"/>
+      <c r="DN2" s="43"/>
+      <c r="DO2" s="43"/>
+      <c r="DP2" s="43"/>
+      <c r="DQ2" s="43"/>
+      <c r="DR2" s="43"/>
     </row>
     <row r="3" spans="1:127" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -7316,193 +7107,196 @@
       <c r="DR3" s="1"/>
     </row>
     <row r="5" spans="1:127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="M5" s="13" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+      <c r="M5" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="39"/>
+      <c r="W5" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="39"/>
+      <c r="AG5" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="39"/>
+      <c r="AQ5" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="38"/>
+      <c r="AU5" s="39"/>
+      <c r="BA5" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="38"/>
+      <c r="BE5" s="39"/>
+      <c r="BK5" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
-      <c r="W5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="17"/>
-      <c r="AG5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="17"/>
-      <c r="AQ5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR5" s="16"/>
-      <c r="AS5" s="16"/>
-      <c r="AT5" s="16"/>
-      <c r="AU5" s="17"/>
-      <c r="BA5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="BB5" s="16"/>
-      <c r="BC5" s="16"/>
-      <c r="BD5" s="16"/>
-      <c r="BE5" s="17"/>
-      <c r="BK5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="BL5" s="16"/>
-      <c r="BM5" s="16"/>
-      <c r="BN5" s="16"/>
-      <c r="BO5" s="17"/>
-      <c r="BU5" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="BV5" s="16"/>
-      <c r="BW5" s="16"/>
-      <c r="BX5" s="16"/>
-      <c r="BY5" s="17"/>
-      <c r="CE5" s="13" t="s">
+      <c r="BL5" s="38"/>
+      <c r="BM5" s="38"/>
+      <c r="BN5" s="38"/>
+      <c r="BO5" s="39"/>
+      <c r="BU5" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="CF5" s="16"/>
-      <c r="CG5" s="16"/>
-      <c r="CH5" s="16"/>
-      <c r="CI5" s="17"/>
-      <c r="CO5" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="CP5" s="16"/>
-      <c r="CQ5" s="16"/>
-      <c r="CR5" s="16"/>
-      <c r="CS5" s="17"/>
-      <c r="CT5" s="40"/>
-      <c r="CU5" s="40"/>
-      <c r="CV5" s="40"/>
-      <c r="CW5" s="40"/>
-      <c r="CX5" s="40"/>
-      <c r="CY5" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="CZ5" s="16"/>
-      <c r="DA5" s="16"/>
-      <c r="DB5" s="16"/>
-      <c r="DC5" s="17"/>
-      <c r="DD5" s="40"/>
-      <c r="DE5" s="40"/>
-      <c r="DF5" s="40"/>
-      <c r="DI5" s="34" t="s">
+      <c r="BV5" s="38"/>
+      <c r="BW5" s="38"/>
+      <c r="BX5" s="38"/>
+      <c r="BY5" s="39"/>
+      <c r="CE5" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="CF5" s="38"/>
+      <c r="CG5" s="38"/>
+      <c r="CH5" s="38"/>
+      <c r="CI5" s="39"/>
+      <c r="CO5" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="CP5" s="38"/>
+      <c r="CQ5" s="38"/>
+      <c r="CR5" s="38"/>
+      <c r="CS5" s="39"/>
+      <c r="CT5" s="21"/>
+      <c r="CU5" s="21"/>
+      <c r="CV5" s="21"/>
+      <c r="CW5" s="21"/>
+      <c r="CX5" s="21"/>
+      <c r="CY5" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="CZ5" s="38"/>
+      <c r="DA5" s="38"/>
+      <c r="DB5" s="38"/>
+      <c r="DC5" s="39"/>
+      <c r="DD5" s="21"/>
+      <c r="DE5" s="21"/>
+      <c r="DF5" s="21"/>
+      <c r="DI5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="DJ5" s="35"/>
-      <c r="DK5" s="35"/>
-      <c r="DL5" s="35"/>
-      <c r="DM5" s="36"/>
-      <c r="DS5" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="DT5" s="35"/>
-      <c r="DU5" s="35"/>
-      <c r="DV5" s="35"/>
-      <c r="DW5" s="36"/>
+      <c r="DJ5" s="32"/>
+      <c r="DK5" s="32"/>
+      <c r="DL5" s="32"/>
+      <c r="DM5" s="33"/>
+      <c r="DS5" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="DT5" s="32"/>
+      <c r="DU5" s="32"/>
+      <c r="DV5" s="32"/>
+      <c r="DW5" s="33"/>
     </row>
     <row r="6" spans="1:127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="20"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="20"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="20"/>
-      <c r="AQ6" s="18"/>
-      <c r="AR6" s="19"/>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="19"/>
-      <c r="AU6" s="20"/>
-      <c r="BA6" s="18"/>
-      <c r="BB6" s="19"/>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="19"/>
-      <c r="BE6" s="20"/>
-      <c r="BK6" s="18"/>
-      <c r="BL6" s="19"/>
-      <c r="BM6" s="19"/>
-      <c r="BN6" s="19"/>
-      <c r="BO6" s="20"/>
-      <c r="BU6" s="18"/>
-      <c r="BV6" s="19"/>
-      <c r="BW6" s="19"/>
-      <c r="BX6" s="19"/>
-      <c r="BY6" s="20"/>
-      <c r="CE6" s="18"/>
-      <c r="CF6" s="19"/>
-      <c r="CG6" s="19"/>
-      <c r="CH6" s="19"/>
-      <c r="CI6" s="20"/>
-      <c r="CO6" s="18"/>
-      <c r="CP6" s="19"/>
-      <c r="CQ6" s="19"/>
-      <c r="CR6" s="19"/>
-      <c r="CS6" s="20"/>
-      <c r="CT6" s="40"/>
-      <c r="CU6" s="40"/>
-      <c r="CV6" s="40"/>
-      <c r="CW6" s="40"/>
-      <c r="CX6" s="40"/>
-      <c r="CY6" s="18"/>
-      <c r="CZ6" s="19"/>
-      <c r="DA6" s="19"/>
-      <c r="DB6" s="19"/>
-      <c r="DC6" s="20"/>
-      <c r="DD6" s="40"/>
-      <c r="DE6" s="40"/>
-      <c r="DF6" s="40"/>
-      <c r="DI6" s="37"/>
-      <c r="DJ6" s="38"/>
-      <c r="DK6" s="38"/>
-      <c r="DL6" s="38"/>
-      <c r="DM6" s="39"/>
-      <c r="DS6" s="37"/>
-      <c r="DT6" s="38"/>
-      <c r="DU6" s="38"/>
-      <c r="DV6" s="38"/>
-      <c r="DW6" s="39"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="42"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="42"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="41"/>
+      <c r="AK6" s="42"/>
+      <c r="AQ6" s="40"/>
+      <c r="AR6" s="41"/>
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="41"/>
+      <c r="AU6" s="42"/>
+      <c r="BA6" s="40"/>
+      <c r="BB6" s="41"/>
+      <c r="BC6" s="41"/>
+      <c r="BD6" s="41"/>
+      <c r="BE6" s="42"/>
+      <c r="BK6" s="40"/>
+      <c r="BL6" s="41"/>
+      <c r="BM6" s="41"/>
+      <c r="BN6" s="41"/>
+      <c r="BO6" s="42"/>
+      <c r="BU6" s="40"/>
+      <c r="BV6" s="41"/>
+      <c r="BW6" s="41"/>
+      <c r="BX6" s="41"/>
+      <c r="BY6" s="42"/>
+      <c r="CE6" s="40"/>
+      <c r="CF6" s="41"/>
+      <c r="CG6" s="41"/>
+      <c r="CH6" s="41"/>
+      <c r="CI6" s="42"/>
+      <c r="CO6" s="40"/>
+      <c r="CP6" s="41"/>
+      <c r="CQ6" s="41"/>
+      <c r="CR6" s="41"/>
+      <c r="CS6" s="42"/>
+      <c r="CT6" s="21"/>
+      <c r="CU6" s="21"/>
+      <c r="CV6" s="21"/>
+      <c r="CW6" s="21"/>
+      <c r="CX6" s="21"/>
+      <c r="CY6" s="40"/>
+      <c r="CZ6" s="41"/>
+      <c r="DA6" s="41"/>
+      <c r="DB6" s="41"/>
+      <c r="DC6" s="42"/>
+      <c r="DD6" s="21"/>
+      <c r="DE6" s="21"/>
+      <c r="DF6" s="21"/>
+      <c r="DI6" s="34"/>
+      <c r="DJ6" s="35"/>
+      <c r="DK6" s="35"/>
+      <c r="DL6" s="35"/>
+      <c r="DM6" s="36"/>
+      <c r="DS6" s="34"/>
+      <c r="DT6" s="35"/>
+      <c r="DU6" s="35"/>
+      <c r="DV6" s="35"/>
+      <c r="DW6" s="36"/>
     </row>
     <row r="7" spans="1:127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AF7" t="s">
         <v>41</v>
       </c>
       <c r="BA7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BK7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="G10" t="s">
         <v>40</v>
@@ -7510,11 +7304,11 @@
     </row>
     <row r="11" spans="1:127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E11" s="4"/>
-      <c r="O11" s="14"/>
+      <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E12" s="4"/>
-      <c r="O12" s="15"/>
+      <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E13" s="4"/>
@@ -7527,11 +7321,11 @@
     </row>
     <row r="15" spans="1:127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E15" s="4"/>
-      <c r="Y15" s="14"/>
+      <c r="Y15" s="6"/>
     </row>
     <row r="16" spans="1:127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E16" s="4"/>
-      <c r="Y16" s="15"/>
+      <c r="Y16" s="7"/>
     </row>
     <row r="17" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E17" s="4"/>
@@ -7544,330 +7338,327 @@
     </row>
     <row r="19" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E19" s="4"/>
-      <c r="AI19" s="21"/>
+      <c r="AI19" s="8"/>
     </row>
     <row r="20" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E20" s="4"/>
-      <c r="AI20" s="22"/>
+      <c r="AI20" s="9"/>
     </row>
     <row r="21" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E21" s="4"/>
-      <c r="AI21" s="22"/>
+      <c r="AI21" s="9"/>
     </row>
     <row r="22" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E22" s="4"/>
-      <c r="AI22" s="22"/>
+      <c r="AI22" s="9"/>
       <c r="AK22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E23" s="4"/>
-      <c r="AI23" s="22"/>
-      <c r="AS23" s="14"/>
+      <c r="AI23" s="9"/>
+      <c r="AS23" s="6"/>
     </row>
     <row r="24" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E24" s="4"/>
-      <c r="AI24" s="22"/>
-      <c r="AS24" s="24"/>
+      <c r="AI24" s="9"/>
+      <c r="AS24" s="11"/>
     </row>
     <row r="25" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E25" s="4"/>
-      <c r="AI25" s="22"/>
-      <c r="AS25" s="24"/>
+      <c r="AI25" s="9"/>
+      <c r="AS25" s="11"/>
     </row>
     <row r="26" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E26" s="4"/>
-      <c r="AI26" s="22"/>
-      <c r="AS26" s="24"/>
+      <c r="AI26" s="9"/>
+      <c r="AS26" s="11"/>
       <c r="AU26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E27" s="4"/>
-      <c r="AI27" s="22"/>
-      <c r="AS27" s="24"/>
-      <c r="BC27" s="25"/>
+      <c r="AI27" s="9"/>
+      <c r="AS27" s="11"/>
+      <c r="BC27" s="12"/>
       <c r="BF27" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E28" s="4"/>
-      <c r="AI28" s="22"/>
-      <c r="AS28" s="24"/>
-      <c r="BC28" s="26"/>
-      <c r="BW28" s="25"/>
+      <c r="AI28" s="9"/>
+      <c r="AS28" s="11"/>
+      <c r="BC28" s="13"/>
+      <c r="BW28" s="12"/>
       <c r="CM28" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="29" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="4"/>
-      <c r="AI29" s="22"/>
-      <c r="AS29" s="24"/>
-      <c r="BC29" s="26"/>
-      <c r="BW29" s="26"/>
-      <c r="DK29" s="41"/>
+      <c r="AI29" s="9"/>
+      <c r="AS29" s="11"/>
+      <c r="BC29" s="13"/>
+      <c r="BW29" s="13"/>
+      <c r="DK29" s="22"/>
     </row>
     <row r="30" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="4"/>
-      <c r="AI30" s="22"/>
-      <c r="AS30" s="24"/>
-      <c r="BC30" s="26"/>
-      <c r="BW30" s="26"/>
-      <c r="DK30" s="42"/>
+      <c r="AI30" s="9"/>
+      <c r="AS30" s="11"/>
+      <c r="BC30" s="13"/>
+      <c r="BW30" s="13"/>
+      <c r="DK30" s="23"/>
     </row>
     <row r="31" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E31" s="4"/>
-      <c r="AI31" s="22"/>
-      <c r="AK31" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS31" s="24"/>
-      <c r="BC31" s="26"/>
-      <c r="BW31" s="26"/>
-      <c r="DK31" s="42"/>
+      <c r="AI31" s="9"/>
+      <c r="AK31" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS31" s="11"/>
+      <c r="BC31" s="13"/>
+      <c r="BW31" s="13"/>
+      <c r="DK31" s="23"/>
     </row>
     <row r="32" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E32" s="4"/>
-      <c r="AI32" s="22"/>
-      <c r="AS32" s="24"/>
-      <c r="BC32" s="26"/>
-      <c r="BW32" s="26"/>
+      <c r="AI32" s="9"/>
+      <c r="AS32" s="11"/>
+      <c r="BC32" s="13"/>
+      <c r="BW32" s="13"/>
       <c r="CM32" t="s">
         <v>44</v>
       </c>
-      <c r="DK32" s="43"/>
-    </row>
-    <row r="33" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="DK32" s="17"/>
+    </row>
+    <row r="33" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E33" s="4"/>
-      <c r="AI33" s="22"/>
-      <c r="AS33" s="24"/>
-      <c r="BC33" s="26"/>
+      <c r="AI33" s="9"/>
+      <c r="AS33" s="11"/>
+      <c r="BC33" s="13"/>
       <c r="BF33" t="s">
         <v>47</v>
       </c>
-      <c r="BW33" s="27"/>
-      <c r="DK33" s="44"/>
-    </row>
-    <row r="34" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BW33" s="14"/>
+    </row>
+    <row r="34" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E34" s="4"/>
-      <c r="AI34" s="22"/>
-      <c r="AS34" s="24"/>
-      <c r="BC34" s="26"/>
-      <c r="DK34" s="44"/>
-    </row>
-    <row r="35" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI34" s="9"/>
+      <c r="AS34" s="11"/>
+      <c r="BC34" s="13"/>
+    </row>
+    <row r="35" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E35" s="4"/>
-      <c r="AI35" s="22"/>
-      <c r="AS35" s="24"/>
-      <c r="BC35" s="26"/>
-      <c r="DK35" s="44"/>
-    </row>
-    <row r="36" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI35" s="9"/>
+      <c r="AS35" s="11"/>
+      <c r="BC35" s="13"/>
+    </row>
+    <row r="36" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E36" s="4"/>
-      <c r="AI36" s="22"/>
-      <c r="AS36" s="24"/>
-      <c r="BC36" s="26"/>
-    </row>
-    <row r="37" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI36" s="9"/>
+      <c r="AS36" s="11"/>
+      <c r="BC36" s="13"/>
+    </row>
+    <row r="37" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E37" s="4"/>
-      <c r="AI37" s="22"/>
-      <c r="AS37" s="24"/>
-      <c r="BC37" s="26"/>
+      <c r="AI37" s="9"/>
+      <c r="AS37" s="11"/>
+      <c r="BC37" s="13"/>
       <c r="BE37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E38" s="4"/>
-      <c r="AI38" s="22"/>
-      <c r="AS38" s="24"/>
-      <c r="BC38" s="26"/>
-      <c r="CQ38" s="14"/>
-    </row>
-    <row r="39" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI38" s="9"/>
+      <c r="AS38" s="11"/>
+      <c r="BC38" s="13"/>
+      <c r="CQ38" s="6"/>
+    </row>
+    <row r="39" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E39" s="4"/>
-      <c r="AI39" s="22"/>
-      <c r="AS39" s="24"/>
-      <c r="BC39" s="26"/>
-      <c r="CQ39" s="24"/>
-    </row>
-    <row r="40" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI39" s="9"/>
+      <c r="AS39" s="11"/>
+      <c r="BC39" s="13"/>
+      <c r="CQ39" s="11"/>
+    </row>
+    <row r="40" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E40" s="4"/>
-      <c r="AI40" s="22"/>
-      <c r="AK40" s="51" t="s">
+      <c r="AI40" s="9"/>
+      <c r="AK40" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS40" s="11"/>
+      <c r="AU40" t="s">
         <v>52</v>
       </c>
-      <c r="AS40" s="24"/>
-      <c r="AU40" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC40" s="26"/>
-      <c r="CQ40" s="24"/>
-    </row>
-    <row r="41" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BC40" s="13"/>
+      <c r="CQ40" s="11"/>
+    </row>
+    <row r="41" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E41" s="4"/>
-      <c r="AI41" s="22"/>
-      <c r="AS41" s="24"/>
-      <c r="BC41" s="26"/>
+      <c r="AI41" s="9"/>
+      <c r="AS41" s="11"/>
+      <c r="BC41" s="13"/>
       <c r="BE41" t="s">
-        <v>64</v>
-      </c>
-      <c r="CQ41" s="24"/>
-    </row>
-    <row r="42" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="CQ41" s="11"/>
+    </row>
+    <row r="42" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E42" s="4"/>
-      <c r="AI42" s="23"/>
-      <c r="AS42" s="15"/>
-      <c r="BC42" s="27"/>
-      <c r="CQ42" s="24"/>
-    </row>
-    <row r="43" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI42" s="10"/>
+      <c r="AS42" s="7"/>
+      <c r="BC42" s="14"/>
+      <c r="CQ42" s="11"/>
+    </row>
+    <row r="43" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E43" s="4"/>
-      <c r="CQ43" s="24"/>
-    </row>
-    <row r="44" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="CQ43" s="11"/>
+    </row>
+    <row r="44" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E44" s="4"/>
-      <c r="CQ44" s="24"/>
-    </row>
-    <row r="45" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="CQ44" s="11"/>
+    </row>
+    <row r="45" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E45" s="4"/>
-      <c r="CQ45" s="24"/>
-    </row>
-    <row r="46" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="CQ45" s="11"/>
+    </row>
+    <row r="46" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E46" s="4"/>
-      <c r="CQ46" s="24"/>
-    </row>
-    <row r="47" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="CQ46" s="11"/>
+    </row>
+    <row r="47" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E47" s="4"/>
-      <c r="CQ47" s="24"/>
-    </row>
-    <row r="48" spans="5:115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="CQ47" s="11"/>
+    </row>
+    <row r="48" spans="5:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E48" s="4"/>
-      <c r="BM48" s="45"/>
+      <c r="BM48" s="24"/>
       <c r="BT48" t="s">
-        <v>65</v>
-      </c>
-      <c r="CQ48" s="15"/>
+        <v>63</v>
+      </c>
+      <c r="CQ48" s="7"/>
     </row>
     <row r="49" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E49" s="4"/>
-      <c r="BM49" s="46"/>
+      <c r="BM49" s="25"/>
     </row>
     <row r="50" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E50" s="4"/>
-      <c r="BM50" s="46"/>
+      <c r="BM50" s="25"/>
       <c r="BU50" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="51" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E51" s="4"/>
-      <c r="BM51" s="46"/>
-      <c r="CH51" s="45"/>
+      <c r="BM51" s="25"/>
+      <c r="CH51" s="24"/>
       <c r="CR51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E52" s="4"/>
-      <c r="BM52" s="46"/>
-      <c r="CH52" s="46"/>
-      <c r="DU52" s="41"/>
+      <c r="BM52" s="25"/>
+      <c r="CH52" s="25"/>
+      <c r="DU52" s="22"/>
     </row>
     <row r="53" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E53" s="4"/>
-      <c r="BM53" s="46"/>
-      <c r="CH53" s="46"/>
-      <c r="DU53" s="42"/>
+      <c r="BM53" s="25"/>
+      <c r="CH53" s="25"/>
+      <c r="DU53" s="23"/>
     </row>
     <row r="54" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E54" s="4"/>
-      <c r="BM54" s="46"/>
-      <c r="CH54" s="46"/>
-      <c r="DU54" s="42"/>
+      <c r="BM54" s="25"/>
+      <c r="CH54" s="25"/>
+      <c r="DU54" s="23"/>
     </row>
     <row r="55" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E55" s="4"/>
-      <c r="BM55" s="46"/>
-      <c r="CH55" s="50"/>
+      <c r="BM55" s="25"/>
+      <c r="CH55" s="29"/>
       <c r="CR55" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E56" s="4"/>
-      <c r="BM56" s="46"/>
+      <c r="BM56" s="25"/>
       <c r="BT56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E57" s="4"/>
-      <c r="BM57" s="46"/>
-      <c r="CQ57" s="14"/>
+      <c r="BM57" s="25"/>
+      <c r="CQ57" s="6"/>
     </row>
     <row r="58" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E58" s="4"/>
-      <c r="BM58" s="46"/>
-      <c r="CQ58" s="24"/>
+      <c r="BM58" s="25"/>
+      <c r="CQ58" s="11"/>
     </row>
     <row r="59" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E59" s="4"/>
-      <c r="BM59" s="46"/>
-      <c r="CQ59" s="24"/>
+      <c r="BM59" s="25"/>
+      <c r="CQ59" s="11"/>
     </row>
     <row r="60" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E60" s="4"/>
-      <c r="BM60" s="46"/>
+      <c r="BM60" s="25"/>
       <c r="BV60" t="s">
-        <v>66</v>
-      </c>
-      <c r="CQ60" s="24"/>
+        <v>64</v>
+      </c>
+      <c r="CQ60" s="11"/>
     </row>
     <row r="61" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E61" s="4"/>
-      <c r="BM61" s="50"/>
-      <c r="CQ61" s="24"/>
+      <c r="BM61" s="29"/>
+      <c r="CQ61" s="11"/>
     </row>
     <row r="62" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E62" s="4"/>
-      <c r="CQ62" s="24"/>
+      <c r="CQ62" s="11"/>
     </row>
     <row r="63" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E63" s="4"/>
-      <c r="CQ63" s="24"/>
+      <c r="CQ63" s="11"/>
     </row>
     <row r="64" spans="5:125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E64" s="4"/>
-      <c r="CQ64" s="24"/>
+      <c r="CQ64" s="11"/>
     </row>
     <row r="65" spans="5:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E65" s="4"/>
-      <c r="CQ65" s="24"/>
+      <c r="CQ65" s="11"/>
       <c r="CS65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="5:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E66" s="4"/>
-      <c r="CQ66" s="24"/>
-      <c r="DA66" s="47"/>
+      <c r="CQ66" s="11"/>
+      <c r="DA66" s="26"/>
     </row>
     <row r="67" spans="5:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E67" s="4"/>
-      <c r="CQ67" s="15"/>
-      <c r="DA67" s="48"/>
+      <c r="CQ67" s="7"/>
+      <c r="DA67" s="27"/>
       <c r="DF67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="5:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E68" s="4"/>
-      <c r="DA68" s="49"/>
+      <c r="DA68" s="28"/>
     </row>
     <row r="69" spans="5:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E69" s="5"/>
@@ -7895,7 +7686,1736 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9208106F-CA64-4DF4-BDE6-5D311DD9F27B}">
+  <dimension ref="A1:BR69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="43"/>
+      <c r="AY1" s="43"/>
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="43"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="43"/>
+      <c r="BK1" s="43"/>
+      <c r="BL1" s="43"/>
+      <c r="BM1" s="43"/>
+      <c r="BN1" s="43"/>
+      <c r="BO1" s="43"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
+    </row>
+    <row r="2" spans="1:70" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="43"/>
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="43"/>
+      <c r="BK2" s="43"/>
+      <c r="BL2" s="43"/>
+      <c r="BM2" s="43"/>
+      <c r="BN2" s="43"/>
+      <c r="BO2" s="43"/>
+      <c r="BP2" s="43"/>
+      <c r="BQ2" s="43"/>
+      <c r="BR2" s="43"/>
+    </row>
+    <row r="3" spans="1:70" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+    </row>
+    <row r="5" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+      <c r="M5" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="39"/>
+      <c r="W5" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="39"/>
+      <c r="AG5" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="39"/>
+      <c r="AQ5" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="38"/>
+      <c r="AU5" s="39"/>
+      <c r="AW5" s="21"/>
+      <c r="AX5" s="21"/>
+      <c r="AY5" s="21"/>
+      <c r="AZ5" s="21"/>
+      <c r="BA5" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="38"/>
+      <c r="BE5" s="39"/>
+      <c r="BF5" s="21"/>
+      <c r="BG5" s="21"/>
+      <c r="BH5" s="21"/>
+      <c r="BK5" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="32"/>
+      <c r="BM5" s="32"/>
+      <c r="BN5" s="32"/>
+      <c r="BO5" s="33"/>
+    </row>
+    <row r="6" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="42"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="42"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="41"/>
+      <c r="AK6" s="42"/>
+      <c r="AQ6" s="40"/>
+      <c r="AR6" s="41"/>
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="41"/>
+      <c r="AU6" s="42"/>
+      <c r="AW6" s="21"/>
+      <c r="AX6" s="21"/>
+      <c r="AY6" s="21"/>
+      <c r="AZ6" s="21"/>
+      <c r="BA6" s="40"/>
+      <c r="BB6" s="41"/>
+      <c r="BC6" s="41"/>
+      <c r="BD6" s="41"/>
+      <c r="BE6" s="42"/>
+      <c r="BF6" s="21"/>
+      <c r="BG6" s="21"/>
+      <c r="BH6" s="21"/>
+      <c r="BK6" s="34"/>
+      <c r="BL6" s="35"/>
+      <c r="BM6" s="35"/>
+      <c r="BN6" s="35"/>
+      <c r="BO6" s="36"/>
+    </row>
+    <row r="10" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="4"/>
+      <c r="O11" s="8"/>
+      <c r="R11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="4"/>
+      <c r="O12" s="9"/>
+      <c r="Y12" s="6"/>
+      <c r="AB12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="4"/>
+      <c r="O13" s="9"/>
+      <c r="Y13" s="11"/>
+      <c r="AI13" s="12"/>
+      <c r="AL13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="4"/>
+      <c r="O14" s="9"/>
+      <c r="Y14" s="11"/>
+      <c r="AI14" s="13"/>
+      <c r="AS14" s="12"/>
+      <c r="AZ14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="4"/>
+      <c r="O15" s="9"/>
+      <c r="Y15" s="11"/>
+      <c r="AI15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="BM15" s="22"/>
+    </row>
+    <row r="16" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="4"/>
+      <c r="O16" s="9"/>
+      <c r="Y16" s="11"/>
+      <c r="AI16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="BM16" s="23"/>
+    </row>
+    <row r="17" spans="5:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="4"/>
+      <c r="O17" s="9"/>
+      <c r="Y17" s="11"/>
+      <c r="AI17" s="13"/>
+      <c r="AS17" s="13"/>
+      <c r="BM17" s="23"/>
+    </row>
+    <row r="18" spans="5:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E18" s="4"/>
+      <c r="O18" s="9"/>
+      <c r="Y18" s="11"/>
+      <c r="AI18" s="13"/>
+      <c r="AS18" s="13"/>
+      <c r="BB18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="5:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="4"/>
+      <c r="O19" s="9"/>
+      <c r="Y19" s="11"/>
+      <c r="AI19" s="13"/>
+      <c r="AL19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS19" s="13"/>
+    </row>
+    <row r="20" spans="5:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E20" s="4"/>
+      <c r="O20" s="9"/>
+      <c r="Y20" s="11"/>
+      <c r="AI20" s="13"/>
+      <c r="AS20" s="13"/>
+    </row>
+    <row r="21" spans="5:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="4"/>
+      <c r="O21" s="9"/>
+      <c r="Y21" s="11"/>
+      <c r="AI21" s="13"/>
+      <c r="AS21" s="13"/>
+    </row>
+    <row r="22" spans="5:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="4"/>
+      <c r="O22" s="9"/>
+      <c r="Y22" s="11"/>
+      <c r="AI22" s="13"/>
+      <c r="AS22" s="13"/>
+    </row>
+    <row r="23" spans="5:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E23" s="4"/>
+      <c r="O23" s="9"/>
+      <c r="Y23" s="11"/>
+      <c r="AI23" s="13"/>
+      <c r="AK23" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS23" s="13"/>
+    </row>
+    <row r="24" spans="5:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E24" s="4"/>
+      <c r="O24" s="9"/>
+      <c r="Y24" s="11"/>
+      <c r="AI24" s="13"/>
+      <c r="AK24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS24" s="13"/>
+    </row>
+    <row r="25" spans="5:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E25" s="4"/>
+      <c r="O25" s="9"/>
+      <c r="Y25" s="11"/>
+      <c r="AI25" s="13"/>
+      <c r="AS25" s="13"/>
+    </row>
+    <row r="26" spans="5:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E26" s="4"/>
+      <c r="O26" s="9"/>
+      <c r="Y26" s="11"/>
+      <c r="AI26" s="13"/>
+      <c r="AS26" s="13"/>
+    </row>
+    <row r="27" spans="5:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E27" s="4"/>
+      <c r="O27" s="9"/>
+      <c r="Y27" s="11"/>
+      <c r="AI27" s="13"/>
+      <c r="AS27" s="13"/>
+    </row>
+    <row r="28" spans="5:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E28" s="4"/>
+      <c r="O28" s="9"/>
+      <c r="Y28" s="11"/>
+      <c r="AI28" s="14"/>
+      <c r="AS28" s="13"/>
+    </row>
+    <row r="29" spans="5:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E29" s="4"/>
+      <c r="O29" s="9"/>
+      <c r="Y29" s="11"/>
+      <c r="AS29" s="14"/>
+    </row>
+    <row r="30" spans="5:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E30" s="4"/>
+      <c r="O30" s="9"/>
+      <c r="Y30" s="11"/>
+    </row>
+    <row r="31" spans="5:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E31" s="4"/>
+      <c r="O31" s="9"/>
+      <c r="Y31" s="7"/>
+    </row>
+    <row r="32" spans="5:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E32" s="4"/>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E33" s="4"/>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E34" s="4"/>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E69" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:BR2"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="M5:Q6"/>
+    <mergeCell ref="W5:AA6"/>
+    <mergeCell ref="AG5:AK6"/>
+    <mergeCell ref="AQ5:AU6"/>
+    <mergeCell ref="BA5:BE6"/>
+    <mergeCell ref="BK5:BO6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7BF427-23CA-438B-8458-9AFDC231FFF3}">
+  <dimension ref="A1:CD62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="CH36" sqref="CH36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:82" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="43"/>
+      <c r="AY1" s="43"/>
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="43"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="43"/>
+      <c r="BK1" s="43"/>
+      <c r="BL1" s="43"/>
+      <c r="BM1" s="43"/>
+      <c r="BN1" s="43"/>
+      <c r="BO1" s="43"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
+      <c r="BS1" s="43"/>
+      <c r="BT1" s="43"/>
+      <c r="BU1" s="43"/>
+      <c r="BV1" s="43"/>
+      <c r="BW1" s="43"/>
+      <c r="BX1" s="43"/>
+      <c r="BY1" s="43"/>
+      <c r="BZ1" s="43"/>
+      <c r="CA1" s="43"/>
+      <c r="CB1" s="43"/>
+      <c r="CC1" s="43"/>
+      <c r="CD1" s="43"/>
+    </row>
+    <row r="2" spans="1:82" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="43"/>
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="43"/>
+      <c r="BK2" s="43"/>
+      <c r="BL2" s="43"/>
+      <c r="BM2" s="43"/>
+      <c r="BN2" s="43"/>
+      <c r="BO2" s="43"/>
+      <c r="BP2" s="43"/>
+      <c r="BQ2" s="43"/>
+      <c r="BR2" s="43"/>
+      <c r="BS2" s="43"/>
+      <c r="BT2" s="43"/>
+      <c r="BU2" s="43"/>
+      <c r="BV2" s="43"/>
+      <c r="BW2" s="43"/>
+      <c r="BX2" s="43"/>
+      <c r="BY2" s="43"/>
+      <c r="BZ2" s="43"/>
+      <c r="CA2" s="43"/>
+      <c r="CB2" s="43"/>
+      <c r="CC2" s="43"/>
+      <c r="CD2" s="43"/>
+    </row>
+    <row r="3" spans="1:82" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BY3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CA3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CC3" s="1"/>
+      <c r="CD3" s="1"/>
+    </row>
+    <row r="5" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="16"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="16"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="16"/>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="16"/>
+    </row>
+    <row r="14" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="7:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="16"/>
+      <c r="AO20" s="16"/>
+      <c r="AP20" s="16"/>
+      <c r="AQ20" s="16"/>
+      <c r="AR20" s="16"/>
+      <c r="AS20" s="16"/>
+      <c r="AT20" s="16"/>
+      <c r="AU20" s="16"/>
+      <c r="AV20" s="16"/>
+    </row>
+    <row r="21" spans="7:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="7:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="16"/>
+      <c r="AJ29" s="16"/>
+      <c r="AK29" s="16"/>
+      <c r="AL29" s="16"/>
+      <c r="AM29" s="16"/>
+      <c r="AN29" s="16"/>
+      <c r="AO29" s="16"/>
+      <c r="AP29" s="16"/>
+      <c r="AQ29" s="16"/>
+      <c r="AR29" s="16"/>
+      <c r="AS29" s="16"/>
+      <c r="AT29" s="16"/>
+      <c r="AU29" s="16"/>
+      <c r="AV29" s="16"/>
+    </row>
+    <row r="30" spans="7:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="7:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I32" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="7:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G44" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="17"/>
+      <c r="AC44" s="17"/>
+      <c r="AD44" s="17"/>
+      <c r="AE44" s="17"/>
+      <c r="AF44" s="17"/>
+      <c r="AG44" s="17"/>
+      <c r="AH44" s="17"/>
+      <c r="AI44" s="17"/>
+      <c r="AJ44" s="17"/>
+      <c r="AK44" s="17"/>
+      <c r="AL44" s="17"/>
+      <c r="AM44" s="17"/>
+      <c r="AN44" s="17"/>
+      <c r="AO44" s="17"/>
+      <c r="AP44" s="17"/>
+      <c r="AQ44" s="17"/>
+      <c r="AR44" s="17"/>
+      <c r="AS44" s="17"/>
+      <c r="AT44" s="17"/>
+      <c r="AU44" s="17"/>
+      <c r="AV44" s="17"/>
+      <c r="AW44" s="17"/>
+    </row>
+    <row r="57" spans="7:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="T57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="7:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="T58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="7:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G59" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="7:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I60" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="7:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="7:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I62" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:CD2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA526B4-576F-4645-9213-B355672E4A16}">
+  <dimension ref="A1:CD69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BM51" sqref="BM51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:82" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="43"/>
+      <c r="AY1" s="43"/>
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="43"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="43"/>
+      <c r="BK1" s="43"/>
+      <c r="BL1" s="43"/>
+      <c r="BM1" s="43"/>
+      <c r="BN1" s="43"/>
+      <c r="BO1" s="43"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
+      <c r="BS1" s="43"/>
+      <c r="BT1" s="43"/>
+      <c r="BU1" s="43"/>
+      <c r="BV1" s="43"/>
+      <c r="BW1" s="43"/>
+      <c r="BX1" s="43"/>
+      <c r="BY1" s="43"/>
+      <c r="BZ1" s="43"/>
+      <c r="CA1" s="43"/>
+      <c r="CB1" s="43"/>
+      <c r="CC1" s="43"/>
+      <c r="CD1" s="43"/>
+    </row>
+    <row r="2" spans="1:82" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="43"/>
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="43"/>
+      <c r="BK2" s="43"/>
+      <c r="BL2" s="43"/>
+      <c r="BM2" s="43"/>
+      <c r="BN2" s="43"/>
+      <c r="BO2" s="43"/>
+      <c r="BP2" s="43"/>
+      <c r="BQ2" s="43"/>
+      <c r="BR2" s="43"/>
+      <c r="BS2" s="43"/>
+      <c r="BT2" s="43"/>
+      <c r="BU2" s="43"/>
+      <c r="BV2" s="43"/>
+      <c r="BW2" s="43"/>
+      <c r="BX2" s="43"/>
+      <c r="BY2" s="43"/>
+      <c r="BZ2" s="43"/>
+      <c r="CA2" s="43"/>
+      <c r="CB2" s="43"/>
+      <c r="CC2" s="43"/>
+      <c r="CD2" s="43"/>
+    </row>
+    <row r="3" spans="1:82" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BY3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CA3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CC3" s="1"/>
+      <c r="CD3" s="1"/>
+    </row>
+    <row r="5" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+    </row>
+    <row r="11" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="7:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="16"/>
+      <c r="AM23" s="16"/>
+      <c r="AN23" s="16"/>
+      <c r="AO23" s="16"/>
+      <c r="AP23" s="16"/>
+      <c r="AQ23" s="16"/>
+      <c r="AR23" s="16"/>
+      <c r="AS23" s="16"/>
+      <c r="AT23" s="16"/>
+      <c r="AU23" s="16"/>
+      <c r="AV23" s="16"/>
+    </row>
+    <row r="24" spans="7:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="7:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="7:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="16"/>
+      <c r="AG36" s="16"/>
+      <c r="AH36" s="16"/>
+      <c r="AI36" s="16"/>
+      <c r="AJ36" s="16"/>
+      <c r="AK36" s="16"/>
+      <c r="AL36" s="16"/>
+      <c r="AM36" s="16"/>
+      <c r="AN36" s="16"/>
+      <c r="AO36" s="16"/>
+      <c r="AP36" s="16"/>
+      <c r="AQ36" s="16"/>
+      <c r="AR36" s="16"/>
+      <c r="AS36" s="16"/>
+      <c r="AT36" s="16"/>
+      <c r="AU36" s="16"/>
+      <c r="AV36" s="16"/>
+    </row>
+    <row r="37" spans="7:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="7:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I39" s="18"/>
+      <c r="J39" s="19"/>
+    </row>
+    <row r="51" spans="7:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G51" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="17"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17"/>
+      <c r="AA51" s="17"/>
+      <c r="AB51" s="17"/>
+      <c r="AC51" s="17"/>
+      <c r="AD51" s="17"/>
+      <c r="AE51" s="17"/>
+      <c r="AF51" s="17"/>
+      <c r="AG51" s="17"/>
+      <c r="AH51" s="17"/>
+      <c r="AI51" s="17"/>
+      <c r="AJ51" s="17"/>
+      <c r="AK51" s="17"/>
+      <c r="AL51" s="17"/>
+      <c r="AM51" s="17"/>
+      <c r="AN51" s="17"/>
+      <c r="AO51" s="17"/>
+      <c r="AP51" s="17"/>
+      <c r="AQ51" s="17"/>
+      <c r="AR51" s="17"/>
+      <c r="AS51" s="17"/>
+      <c r="AT51" s="17"/>
+      <c r="AU51" s="17"/>
+      <c r="AV51" s="17"/>
+      <c r="AW51" s="17"/>
+    </row>
+    <row r="53" spans="7:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="V53" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G66" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I69" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:CD2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9EB316-2BFB-4E97-B0B2-36FC52AD4242}">
   <dimension ref="A1"/>
   <sheetViews>
